--- a/data/concepts_l5.xlsx
+++ b/data/concepts_l5.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,13 +376,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Business transformation</t>
+          <t>Complement (music)</t>
         </is>
       </c>
       <c r="B3">
@@ -392,21 +392,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Complement (music)</t>
+          <t>Severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2)</t>
         </is>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2)</t>
+          <t>Business transformation</t>
         </is>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -442,7 +442,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Operator (biology)</t>
+          <t>Project stakeholder</t>
         </is>
       </c>
       <c r="B9">
@@ -452,7 +452,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Project stakeholder</t>
+          <t>Pseudouridine</t>
         </is>
       </c>
       <c r="B10">
@@ -462,7 +462,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Pseudouridine</t>
+          <t>Requirements traceability</t>
         </is>
       </c>
       <c r="B11">
@@ -472,7 +472,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Public Sector Marketing</t>
+          <t>Ribosome biogenesis</t>
         </is>
       </c>
       <c r="B12">
@@ -482,7 +482,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Requirements traceability</t>
+          <t>Small nucleolar RNA</t>
         </is>
       </c>
       <c r="B13">
@@ -492,7 +492,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ribosome biogenesis</t>
+          <t>Stratification (seeds)</t>
         </is>
       </c>
       <c r="B14">
@@ -502,7 +502,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Small nucleolar RNA</t>
+          <t>Time geography</t>
         </is>
       </c>
       <c r="B15">
@@ -512,30 +512,10 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Stratification (seeds)</t>
+          <t>Total human ecosystem</t>
         </is>
       </c>
       <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Time geography</t>
-        </is>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Total human ecosystem</t>
-        </is>
-      </c>
-      <c r="B18">
         <v>1</v>
       </c>
     </row>
